--- a/data/보유리스크율_자동차/20210805/자동차_특약보종별_손해액_201912.xlsx
+++ b/data/보유리스크율_자동차/20210805/자동차_특약보종별_손해액_201912.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
+  <si>
+    <t>UY</t>
+  </si>
   <si>
     <t>BSC_CVR_CD</t>
   </si>
@@ -26,16 +29,142 @@
     <t>RN_LOSS</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
-    <t>09</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
   <si>
     <t>04</t>
@@ -44,196 +173,661 @@
     <t>09</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>09</t>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
   <si>
     <t>03</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
 </sst>
 </file>
@@ -585,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E90"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
@@ -600,495 +1194,1521 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>112527074</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>6259980</v>
+        <v>5144828274</v>
+      </c>
+      <c r="E2">
+        <v>265529382</v>
       </c>
     </row>
     <row r="3" ht="15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>11817485058</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>3370371904</v>
+        <v>985320</v>
+      </c>
+      <c r="E3">
+        <v>492660</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1875553064</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>530026880</v>
+        <v>119837880</v>
+      </c>
+      <c r="E4">
+        <v>13954032</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>985320</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>492660</v>
+        <v>4858790132</v>
+      </c>
+      <c r="E5">
+        <v>2409759658</v>
       </c>
     </row>
     <row r="6" ht="15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>69971821554</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>10661595438</v>
+        <v>8918898830</v>
+      </c>
+      <c r="E6">
+        <v>2660350888</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>413406400</v>
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>145973250</v>
+        <v>493672860</v>
+      </c>
+      <c r="E7">
+        <v>203420880</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>331279016</v>
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>74456810</v>
+        <v>270400</v>
+      </c>
+      <c r="E8">
+        <v>81120</v>
       </c>
     </row>
     <row r="9" ht="15">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1001163616</v>
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>300834936</v>
+        <v>155484160</v>
+      </c>
+      <c r="E9">
+        <v>46650768</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>1880038164</v>
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>59977802</v>
+        <v>152000576</v>
+      </c>
+      <c r="E10">
+        <v>45600200</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>11436180196</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>4692067736</v>
+        <v>3077758720</v>
+      </c>
+      <c r="E11">
+        <v>606268090</v>
       </c>
     </row>
     <row r="12" ht="15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>43751532</v>
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>13120552</v>
+        <v>6332813188</v>
+      </c>
+      <c r="E12">
+        <v>1894467660</v>
       </c>
     </row>
     <row r="13" ht="15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>440738938</v>
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>165564354</v>
+        <v>19996980</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="15">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>2382368428</v>
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>656684392</v>
+        <v>3492443928</v>
+      </c>
+      <c r="E14">
+        <v>264986972</v>
       </c>
     </row>
     <row r="15" ht="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>432581470</v>
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>195062466</v>
+        <v>215594660</v>
+      </c>
+      <c r="E15">
+        <v>69486440</v>
       </c>
     </row>
     <row r="16" ht="15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>88877690024</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>13426746060</v>
+        <v>4157759030</v>
+      </c>
+      <c r="E16">
+        <v>660955362</v>
       </c>
     </row>
     <row r="17" ht="15">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>8050381546</v>
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>1280609994</v>
+        <v>15406960</v>
+      </c>
+      <c r="E17">
+        <v>4622088</v>
       </c>
     </row>
     <row r="18" ht="15">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>4122155322</v>
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>264615096</v>
+        <v>5359049412</v>
+      </c>
+      <c r="E18">
+        <v>803886506</v>
       </c>
     </row>
     <row r="19" ht="15">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>111952076</v>
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>5165048</v>
+        <v>999763618</v>
+      </c>
+      <c r="E19">
+        <v>300414938</v>
       </c>
     </row>
     <row r="20" ht="15">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>6996108858</v>
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>343010872</v>
+        <v>179278440</v>
+      </c>
+      <c r="E20">
+        <v>28856610</v>
       </c>
     </row>
     <row r="21" ht="15">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>71654610</v>
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>34643706</v>
+        <v>21097729094</v>
+      </c>
+      <c r="E21">
+        <v>3342592702</v>
       </c>
     </row>
     <row r="22" ht="15">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>9544754478</v>
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>1467345866</v>
+        <v>198871818</v>
+      </c>
+      <c r="E22">
+        <v>60763054</v>
       </c>
     </row>
     <row r="23" ht="15">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>755381702</v>
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>276969800</v>
+        <v>78088254</v>
+      </c>
+      <c r="E23">
+        <v>38928130</v>
       </c>
     </row>
     <row r="24" ht="15">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>9251127386</v>
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>2682150702</v>
+        <v>3284000</v>
+      </c>
+      <c r="E24">
+        <v>242000</v>
       </c>
     </row>
     <row r="25" ht="15">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>1431241266</v>
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>238103406</v>
+        <v>643660</v>
+      </c>
+      <c r="E25">
+        <v>96552</v>
       </c>
     </row>
     <row r="26" ht="15">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>45873816282</v>
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>7518211118</v>
+        <v>169770340</v>
+      </c>
+      <c r="E26">
+        <v>74973770</v>
       </c>
     </row>
     <row r="27" ht="15">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27">
-        <v>30095697884</v>
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
       </c>
       <c r="D27">
-        <v>8335147438</v>
+        <v>4061700</v>
+      </c>
+      <c r="E27">
+        <v>609256</v>
       </c>
     </row>
     <row r="28" ht="15">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28">
-        <v>52019025900</v>
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
       </c>
       <c r="D28">
-        <v>7363398634</v>
+        <v>4061939298</v>
+      </c>
+      <c r="E28">
+        <v>558116948</v>
       </c>
     </row>
     <row r="29" ht="15">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29">
-        <v>30833824</v>
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
       </c>
       <c r="D29">
-        <v>-12684008</v>
+        <v>5390635490</v>
+      </c>
+      <c r="E29">
+        <v>809371912</v>
       </c>
     </row>
     <row r="30" ht="15">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30">
-        <v>78088254</v>
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
       </c>
       <c r="D30">
-        <v>38928130</v>
+        <v>192897420</v>
+      </c>
+      <c r="E30">
+        <v>13570680</v>
       </c>
     </row>
     <row r="31" ht="15">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31">
-        <v>4693655536</v>
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
       </c>
       <c r="D31">
-        <v>558890094</v>
+        <v>608577498</v>
+      </c>
+      <c r="E31">
+        <v>773146</v>
       </c>
     </row>
     <row r="32" ht="15">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32">
-        <v>242521140</v>
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>72756342</v>
+        <v>296600680</v>
+      </c>
+      <c r="E32">
+        <v>56173624</v>
       </c>
     </row>
     <row r="33" ht="15">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33">
-        <v>8339979694</v>
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>3882105506</v>
+        <v>31814250</v>
+      </c>
+      <c r="E33">
+        <v>1855714</v>
       </c>
     </row>
     <row r="34" ht="15">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34">
-        <v>12152141710</v>
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
       </c>
       <c r="D34">
-        <v>3313269746</v>
+        <v>2656916976</v>
+      </c>
+      <c r="E34">
+        <v>471123134</v>
       </c>
     </row>
     <row r="35" ht="15">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35">
-        <v>12006876544</v>
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
       </c>
       <c r="D35">
-        <v>4696716898</v>
+        <v>41882332</v>
+      </c>
+      <c r="E35">
+        <v>4315890</v>
       </c>
     </row>
     <row r="36" ht="15">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36">
-        <v>80914860</v>
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
       </c>
       <c r="D36">
-        <v>3278956</v>
+        <v>250601372</v>
+      </c>
+      <c r="E36">
+        <v>10287236</v>
+      </c>
+    </row>
+    <row r="37" ht="15">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37">
+        <v>337011800</v>
+      </c>
+      <c r="E37">
+        <v>144714900</v>
+      </c>
+    </row>
+    <row r="38" ht="15">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>1066440</v>
+      </c>
+      <c r="E38">
+        <v>159966</v>
+      </c>
+    </row>
+    <row r="39" ht="15">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>28084234492</v>
+      </c>
+      <c r="E39">
+        <v>3580065268</v>
+      </c>
+    </row>
+    <row r="40" ht="15">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40">
+        <v>48720103506</v>
+      </c>
+      <c r="E40">
+        <v>7311165262</v>
+      </c>
+    </row>
+    <row r="41" ht="15">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>23282081428</v>
+      </c>
+      <c r="E41">
+        <v>6978215550</v>
+      </c>
+    </row>
+    <row r="42" ht="15">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42">
+        <v>309271388</v>
+      </c>
+      <c r="E42">
+        <v>23178396</v>
+      </c>
+    </row>
+    <row r="43" ht="15">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43">
+        <v>49100610</v>
+      </c>
+      <c r="E43">
+        <v>1423242</v>
+      </c>
+    </row>
+    <row r="44" ht="15">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44">
+        <v>863400</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="15">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45">
+        <v>418369902</v>
+      </c>
+      <c r="E45">
+        <v>132254900</v>
+      </c>
+    </row>
+    <row r="46" ht="15">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46">
+        <v>6540481354</v>
+      </c>
+      <c r="E46">
+        <v>2279577498</v>
+      </c>
+    </row>
+    <row r="47" ht="15">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47">
+        <v>4018404</v>
+      </c>
+      <c r="E47">
+        <v>602760</v>
+      </c>
+    </row>
+    <row r="48" ht="15">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48">
+        <v>4185858966</v>
+      </c>
+      <c r="E48">
+        <v>1724993310</v>
+      </c>
+    </row>
+    <row r="49" ht="15">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49">
+        <v>1600679212</v>
+      </c>
+      <c r="E49">
+        <v>67194254</v>
+      </c>
+    </row>
+    <row r="50" ht="15">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50">
+        <v>577975018</v>
+      </c>
+      <c r="E50">
+        <v>-371876</v>
+      </c>
+    </row>
+    <row r="51" ht="15">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51">
+        <v>164955330</v>
+      </c>
+      <c r="E51">
+        <v>81333886</v>
+      </c>
+    </row>
+    <row r="52" ht="15">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52">
+        <v>149970550</v>
+      </c>
+      <c r="E52">
+        <v>7234714</v>
+      </c>
+    </row>
+    <row r="53" ht="15">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53">
+        <v>1563545424</v>
+      </c>
+      <c r="E53">
+        <v>469231168</v>
+      </c>
+    </row>
+    <row r="54" ht="15">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54">
+        <v>36908710</v>
+      </c>
+      <c r="E54">
+        <v>2730580</v>
+      </c>
+    </row>
+    <row r="55" ht="15">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55">
+        <v>2829080</v>
+      </c>
+      <c r="E55">
+        <v>114948</v>
+      </c>
+    </row>
+    <row r="56" ht="15">
+      <c r="A56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56">
+        <v>28041400</v>
+      </c>
+      <c r="E56">
+        <v>1513040</v>
+      </c>
+    </row>
+    <row r="57" ht="15">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57">
+        <v>208073856</v>
+      </c>
+      <c r="E57">
+        <v>62422162</v>
+      </c>
+    </row>
+    <row r="58" ht="15">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58">
+        <v>2960597698</v>
+      </c>
+      <c r="E58">
+        <v>1479197120</v>
+      </c>
+    </row>
+    <row r="59" ht="15">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59">
+        <v>583664868</v>
+      </c>
+      <c r="E59">
+        <v>109674098</v>
+      </c>
+    </row>
+    <row r="60" ht="15">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60">
+        <v>12506900</v>
+      </c>
+      <c r="E60">
+        <v>1876036</v>
+      </c>
+    </row>
+    <row r="61" ht="15">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61">
+        <v>51557128894</v>
+      </c>
+      <c r="E61">
+        <v>7748987746</v>
+      </c>
+    </row>
+    <row r="62" ht="15">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62">
+        <v>4885709136</v>
+      </c>
+      <c r="E62">
+        <v>2199487506</v>
+      </c>
+    </row>
+    <row r="63" ht="15">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63">
+        <v>242521140</v>
+      </c>
+      <c r="E63">
+        <v>72756342</v>
+      </c>
+    </row>
+    <row r="64" ht="15">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64">
+        <v>36998782842</v>
+      </c>
+      <c r="E64">
+        <v>5652703882</v>
+      </c>
+    </row>
+    <row r="65" ht="15">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65">
+        <v>199984788</v>
+      </c>
+      <c r="E65">
+        <v>100485410</v>
+      </c>
+    </row>
+    <row r="66" ht="15">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66">
+        <v>71654610</v>
+      </c>
+      <c r="E66">
+        <v>34643706</v>
+      </c>
+    </row>
+    <row r="67" ht="15">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67">
+        <v>25313567332</v>
+      </c>
+      <c r="E67">
+        <v>3799179416</v>
+      </c>
+    </row>
+    <row r="68" ht="15">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68">
+        <v>26879596</v>
+      </c>
+      <c r="E68">
+        <v>2344032</v>
+      </c>
+    </row>
+    <row r="69" ht="15">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69">
+        <v>92365234</v>
+      </c>
+      <c r="E69">
+        <v>6259980</v>
+      </c>
+    </row>
+    <row r="70" ht="15">
+      <c r="A70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70">
+        <v>440363922</v>
+      </c>
+      <c r="E70">
+        <v>132109182</v>
+      </c>
+    </row>
+    <row r="71" ht="15">
+      <c r="A71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71">
+        <v>22198244</v>
+      </c>
+      <c r="E71">
+        <v>-12684008</v>
+      </c>
+    </row>
+    <row r="72" ht="15">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72">
+        <v>36018772</v>
+      </c>
+      <c r="E72">
+        <v>10805632</v>
+      </c>
+    </row>
+    <row r="73" ht="15">
+      <c r="A73" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73">
+        <v>20439767410</v>
+      </c>
+      <c r="E73">
+        <v>3704981118</v>
+      </c>
+    </row>
+    <row r="74" ht="15">
+      <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74">
+        <v>156187500</v>
+      </c>
+      <c r="E74">
+        <v>70293750</v>
+      </c>
+    </row>
+    <row r="75" ht="15">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75">
+        <v>100248012</v>
+      </c>
+      <c r="E75">
+        <v>5165048</v>
+      </c>
+    </row>
+    <row r="76" ht="15">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76">
+        <v>222930806</v>
+      </c>
+      <c r="E76">
+        <v>985008</v>
+      </c>
+    </row>
+    <row r="77" ht="15">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77">
+        <v>9365497564</v>
+      </c>
+      <c r="E77">
+        <v>2806334676</v>
+      </c>
+    </row>
+    <row r="78" ht="15">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78">
+        <v>2264164134</v>
+      </c>
+      <c r="E78">
+        <v>507690220</v>
+      </c>
+    </row>
+    <row r="79" ht="15">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79">
+        <v>43481132</v>
+      </c>
+      <c r="E79">
+        <v>13039432</v>
+      </c>
+    </row>
+    <row r="80" ht="15">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80">
+        <v>1656795358</v>
+      </c>
+      <c r="E80">
+        <v>58992794</v>
+      </c>
+    </row>
+    <row r="81" ht="15">
+      <c r="A81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81">
+        <v>846712998</v>
+      </c>
+      <c r="E81">
+        <v>128429308</v>
+      </c>
+    </row>
+    <row r="82" ht="15">
+      <c r="A82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82">
+        <v>187823360</v>
+      </c>
+      <c r="E82">
+        <v>56347008</v>
+      </c>
+    </row>
+    <row r="83" ht="15">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83">
+        <v>1920659900</v>
+      </c>
+      <c r="E83">
+        <v>574895882</v>
+      </c>
+    </row>
+    <row r="84" ht="15">
+      <c r="A84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84">
+        <v>264342140</v>
+      </c>
+      <c r="E84">
+        <v>113486580</v>
+      </c>
+    </row>
+    <row r="85" ht="15">
+      <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85">
+        <v>6373252534</v>
+      </c>
+      <c r="E85">
+        <v>1224822706</v>
+      </c>
+    </row>
+    <row r="86" ht="15">
+      <c r="A86" t="s">
+        <v>257</v>
+      </c>
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86">
+        <v>2710240342</v>
+      </c>
+      <c r="E86">
+        <v>725260880</v>
+      </c>
+    </row>
+    <row r="87" ht="15">
+      <c r="A87" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87">
+        <v>23737832288</v>
+      </c>
+      <c r="E87">
+        <v>3769153430</v>
+      </c>
+    </row>
+    <row r="88" ht="15">
+      <c r="A88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88">
+        <v>7664830078</v>
+      </c>
+      <c r="E88">
+        <v>2901429838</v>
+      </c>
+    </row>
+    <row r="89" ht="15">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>268</v>
+      </c>
+      <c r="D89">
+        <v>425689756</v>
+      </c>
+      <c r="E89">
+        <v>70982878</v>
+      </c>
+    </row>
+    <row r="90" ht="15">
+      <c r="A90" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90">
+        <v>1399998</v>
+      </c>
+      <c r="E90">
+        <v>419998</v>
       </c>
     </row>
   </sheetData>
